--- a/sneakers.xlsx
+++ b/sneakers.xlsx
@@ -441,22 +441,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Брeнд</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Старая цена</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Новая цена</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Ссылка на товар</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Брэнд</t>
         </is>
       </c>
     </row>
@@ -471,22 +471,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Converse</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>13 999</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>5 990 ₽</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtladd114301/shoes-converse-kedy/</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Converse</t>
+          <t>https://clck.ru/36hpGM</t>
         </is>
       </c>
     </row>
@@ -501,22 +501,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>adidas Originals</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>17 999</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>8 999 ₽</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlacy043001/shoes-adidasoriginals-krossovki/</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>adidas Originals</t>
+          <t>https://clck.ru/36hqU3</t>
         </is>
       </c>
     </row>
@@ -531,22 +531,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Baon</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>3 999</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1 999 ₽</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/mp002xm0b56k/clothes-baon-dzhemper/</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Baon</t>
+          <t>https://clck.ru/36m5JW</t>
         </is>
       </c>
     </row>
@@ -561,22 +561,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>Reebok</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>7 999</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>3 999 ₽</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlacv920301/shoes-reebok-kedy/</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Reebok</t>
+          <t>https://clck.ru/36m5Je</t>
         </is>
       </c>
     </row>
@@ -591,22 +591,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>Patrol</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>3 599</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1 999 ₽</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlact686301/shoes-patrol-kedy/</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Patrol</t>
+          <t>https://clck.ru/36m5Ji</t>
         </is>
       </c>
     </row>
@@ -621,22 +621,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>Dolce&amp;Gabbana</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>12 500</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>6 249 ₽</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlacy209501/beauty_accs-dolceandgabbana-parfyumernaya-voda/</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dolce&amp;Gabbana</t>
+          <t>https://clck.ru/36m5Jo</t>
         </is>
       </c>
     </row>
@@ -651,22 +651,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>Baon</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>11 999</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>5 999 ₽</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/mp002xm09lzh/clothes-baon-kurtka-uteplennaya/</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Baon</t>
+          <t>https://clck.ru/36m5Jp</t>
         </is>
       </c>
     </row>
@@ -681,22 +681,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>Baon</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>11 999</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>5 999 ₽</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/mp002xm0vmca/clothes-baon-kurtka-uteplennaya/</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Baon</t>
+          <t>https://clck.ru/36m5Js</t>
         </is>
       </c>
     </row>
@@ -711,22 +711,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>Lyle &amp; Scott</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>15 990</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>8 490 ₽</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/mp002xm0b3fq/clothes-lylescott-kurtka-uteplennaya/</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lyle &amp; Scott</t>
+          <t>https://clck.ru/36m5Jx</t>
         </is>
       </c>
     </row>
@@ -741,22 +741,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>NASA</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>11 499</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>3 499 ₽</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlacu926601/shoes-nasa-krossovki/</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>NASA</t>
+          <t>https://clck.ru/36m5K4</t>
         </is>
       </c>
     </row>
@@ -771,22 +771,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>Mark Formelle</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>2 380</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1 190 ₽</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/mp002xm161r5/clothes-markformelle-vodolazka/</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mark Formelle</t>
+          <t>https://clck.ru/36m5K7</t>
         </is>
       </c>
     </row>
@@ -801,22 +801,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>Cavalli Class</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>7 899</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>3 555 ₽</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlada389601/clothes-cavalliclass-trusy-sht/</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Cavalli Class</t>
+          <t>https://clck.ru/36m5KB</t>
         </is>
       </c>
     </row>
@@ -831,22 +831,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>Instreet</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>5 999</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1 999 ₽</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/mp002xm0v9zi/shoes-instreet-krossovki/</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Instreet</t>
+          <t>https://clck.ru/36m5KF</t>
         </is>
       </c>
     </row>
@@ -861,22 +861,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>799</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>499 ₽</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlacw315601/clothes-adidas-noski-pary/</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>adidas</t>
+          <t>https://clck.ru/36m5KG</t>
         </is>
       </c>
     </row>
@@ -891,22 +891,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>Lamoda Home</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>1 999</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>999 ₽</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlacn816201/home_accs-lamodahome-prostynya-spalnaya/</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lamoda Home</t>
+          <t>https://clck.ru/36m5KL</t>
         </is>
       </c>
     </row>
@@ -921,22 +921,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>Roberto Piraloff</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>16 999</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>6 999 ₽</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlacu240601/shoes-robertopiraloff-botinki/</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Roberto Piraloff</t>
+          <t>https://clck.ru/36m5KP</t>
         </is>
       </c>
     </row>
@@ -951,22 +951,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>adidas Originals</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>1 999</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1 199 ₽</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlacz010701/clothes-adidasoriginals-noski-pary/</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>adidas Originals</t>
+          <t>https://clck.ru/36ZbQV</t>
         </is>
       </c>
     </row>
@@ -981,22 +981,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>adidas Originals</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>15 999</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>7 999 ₽</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlacw419401/shoes-adidasoriginals-kedy/</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>adidas Originals</t>
+          <t>https://clck.ru/36doYr</t>
         </is>
       </c>
     </row>
@@ -1011,22 +1011,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>Patrol</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>3 599</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1 699 ₽</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlacu172801/shoes-patrol-botinki/</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Patrol</t>
+          <t>https://clck.ru/36m5KX</t>
         </is>
       </c>
     </row>
@@ -1041,22 +1041,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>UNIQLO</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>999</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>499 ₽</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlack460701/clothes-uniqlo-futbolka/</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>UNIQLO</t>
+          <t>https://clck.ru/36m5KZ</t>
         </is>
       </c>
     </row>
@@ -1071,22 +1071,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>Instreet</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>5 799</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1 999 ₽</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/mp002xm0v9zf/shoes-instreet-kedy/</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Instreet</t>
+          <t>https://clck.ru/36m5Kc</t>
         </is>
       </c>
     </row>
@@ -1101,22 +1101,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>Lyle &amp; Scott</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>4 290</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2 690 ₽</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/mp002xm1hh4t/bags-lylescott-sumka/</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lyle &amp; Scott</t>
+          <t>https://clck.ru/32LPZC</t>
         </is>
       </c>
     </row>
@@ -1131,22 +1131,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>adidas Originals</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>15 999</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>7 999 ₽</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlacw419301/shoes-adidasoriginals-kedy/</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>adidas Originals</t>
+          <t>https://clck.ru/35nSDp</t>
         </is>
       </c>
     </row>
@@ -1161,22 +1161,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>Levi's®</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>17 299</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>6 999 ₽</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlacz472001/clothes-levis-dzhinsy/</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Levi's®</t>
+          <t>https://clck.ru/36m5Ki</t>
         </is>
       </c>
     </row>
@@ -1191,22 +1191,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>Lyle &amp; Scott</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>3 490</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1 890 ₽</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/mp002xm1rlyw/clothes-lylescott-futbolka/</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Lyle &amp; Scott</t>
+          <t>https://clck.ru/u2kdm</t>
         </is>
       </c>
     </row>
@@ -1221,22 +1221,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>Reebok</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>13 499</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>6 999 ₽</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlacv046101/shoes-reebok-krossovki/</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Reebok</t>
+          <t>https://clck.ru/36m5Ko</t>
         </is>
       </c>
     </row>
@@ -1251,22 +1251,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>Lyle &amp; Scott</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>3 490</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1 890 ₽</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/mp002xm1hh96/clothes-lylescott-futbolka/</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lyle &amp; Scott</t>
+          <t>https://clck.ru/36m5Kq</t>
         </is>
       </c>
     </row>
@@ -1281,22 +1281,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>Jack &amp; Jones</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>4 199</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1 299 ₽</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtladb455701/clothes-jackandjones-vodolazka/</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Jack &amp; Jones</t>
+          <t>https://clck.ru/36m5Kr</t>
         </is>
       </c>
     </row>
@@ -1311,22 +1311,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>Geonorway Expedition</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>11 299</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>3 999 ₽</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlacu157901/clothes-geonorwayexpedition-kurtka-uteplennaya/</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Geonorway Expedition</t>
+          <t>https://clck.ru/36m5Kv</t>
         </is>
       </c>
     </row>
@@ -1341,22 +1341,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>Lyle &amp; Scott</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>5 990</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>3 540 ₽</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/mp002xm0v7ho/clothes-lylescott-futbolki-sht/</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lyle &amp; Scott</t>
+          <t>https://clck.ru/36m5Kx</t>
         </is>
       </c>
     </row>
@@ -1371,22 +1371,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>Reebok</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>13 499</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>6 799 ₽</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlacv919401/shoes-reebok-kedy/</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Reebok</t>
+          <t>https://clck.ru/36m5L2</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>Mark Formelle</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>3 571</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1 178 ₽</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/mp002xm0917d/clothes-markformelle-bryuki-sportivnye/</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Mark Formelle</t>
+          <t>https://clck.ru/36m5L4</t>
         </is>
       </c>
     </row>
@@ -1431,22 +1431,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>5 999</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>3 700 ₽</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlacy235801/shoes-adidas-kedy/</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>adidas</t>
+          <t>https://clck.ru/36m5L6</t>
         </is>
       </c>
     </row>
@@ -1461,22 +1461,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>adidas Originals</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>15 999</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>11 199 ₽</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlacx163101/shoes-adidasoriginals-krossovki/</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>adidas Originals</t>
+          <t>https://clck.ru/36TaPm</t>
         </is>
       </c>
     </row>
@@ -1491,22 +1491,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>5 999</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>3 700 ₽</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlacx687901/shoes-adidas-kedy/</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>adidas</t>
+          <t>https://clck.ru/36m5LA</t>
         </is>
       </c>
     </row>
@@ -1521,22 +1521,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>5 999</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>3 700 ₽</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlacx099201/shoes-adidas-kedy/</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>adidas</t>
+          <t>https://clck.ru/363T7y</t>
         </is>
       </c>
     </row>
@@ -1551,22 +1551,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>Nike</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>17 990</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>10 990 ₽</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlact576701/shoes-nike-kedy/</t>
-        </is>
-      </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Nike</t>
+          <t>https://clck.ru/35nSbh</t>
         </is>
       </c>
     </row>
@@ -1581,22 +1581,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>9 999</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>5 999 ₽</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlacx556101/clothes-adidas-kostyum-sportivnyy/</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>adidas</t>
+          <t>https://clck.ru/36m5LF</t>
         </is>
       </c>
     </row>
@@ -1611,22 +1611,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>Tom Tailor</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>16 999</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>6 799 ₽</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/mp002xm08syi/clothes-tomtailor-kurtka-uteplennaya/</t>
-        </is>
-      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tom Tailor</t>
+          <t>https://clck.ru/36m5LJ</t>
         </is>
       </c>
     </row>
@@ -1641,22 +1641,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>7 999</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>4 799 ₽</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlacx675001/shoes-adidas-kedy/</t>
-        </is>
-      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>adidas</t>
+          <t>https://clck.ru/36m5LM</t>
         </is>
       </c>
     </row>
@@ -1671,22 +1671,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>adidas Originals</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>1 999</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1 199 ₽</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlacz008901/clothes-adidasoriginals-noski-pary/</t>
-        </is>
-      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>adidas Originals</t>
+          <t>https://clck.ru/36m5LN</t>
         </is>
       </c>
     </row>
@@ -1701,22 +1701,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>9 999</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>5 999 ₽</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlacx556601/clothes-adidas-kostyum-sportivnyy/</t>
-        </is>
-      </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>adidas</t>
+          <t>https://clck.ru/36m5LR</t>
         </is>
       </c>
     </row>
@@ -1731,22 +1731,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>PUMA</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>7 990</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>4 799 ₽</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtladc092701/shoes-puma-kedy/</t>
-        </is>
-      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>PUMA</t>
+          <t>https://clck.ru/36m5LW</t>
         </is>
       </c>
     </row>
@@ -1761,22 +1761,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>adidas Originals</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>1 999</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1 199 ₽</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlacz008701/clothes-adidasoriginals-noski-pary/</t>
-        </is>
-      </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>adidas Originals</t>
+          <t>https://clck.ru/36m5LY</t>
         </is>
       </c>
     </row>
@@ -1791,22 +1791,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>adidas Originals</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>13 999</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>8 399 ₽</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlacx429401/shoes-adidasoriginals-kedy/</t>
-        </is>
-      </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>adidas Originals</t>
+          <t>https://clck.ru/36m5Lc</t>
         </is>
       </c>
     </row>
@@ -1821,22 +1821,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>Aeronautica Militare</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>2 799</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2 239 ₽</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlacu715501/clothes-aeronauticamilitare-futbolka/</t>
-        </is>
-      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Aeronautica Militare</t>
+          <t>https://clck.ru/36m5Lh</t>
         </is>
       </c>
     </row>
@@ -1851,22 +1851,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>Geonorway Expedition</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>14 799</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>7 400 ₽</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlacu157101/clothes-geonorwayexpedition-kurtka-uteplennaya/</t>
-        </is>
-      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Geonorway Expedition</t>
+          <t>https://clck.ru/36m5Lj</t>
         </is>
       </c>
     </row>
@@ -1881,22 +1881,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>adidas Originals</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>1 999</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1 199 ₽</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlacw315101/clothes-adidasoriginals-noski-pary/</t>
-        </is>
-      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>adidas Originals</t>
+          <t>https://clck.ru/36ZbQf</t>
         </is>
       </c>
     </row>
@@ -1911,22 +1911,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>Reebok</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>7 399</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>4 809 ₽</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlack471202/clothes-reebok-bryuki-sportivnye/</t>
-        </is>
-      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Reebok</t>
+          <t>https://clck.ru/36m5Lu</t>
         </is>
       </c>
     </row>
@@ -1941,22 +1941,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>adidas Originals</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>1 999</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1 199 ₽</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlacz010801/clothes-adidasoriginals-noski-pary/</t>
-        </is>
-      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>adidas Originals</t>
+          <t>https://clck.ru/36m5M3</t>
         </is>
       </c>
     </row>
@@ -1971,22 +1971,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>Geonorway Expedition</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>12 499</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>5 625 ₽</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlacu158702/clothes-geonorwayexpedition-kurtka-uteplennaya/</t>
-        </is>
-      </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Geonorway Expedition</t>
+          <t>https://clck.ru/36m5M6</t>
         </is>
       </c>
     </row>
@@ -2001,22 +2001,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>adidas Originals</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>1 999</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1 199 ₽</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlacy475001/clothes-adidasoriginals-noski-pary/</t>
-        </is>
-      </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>adidas Originals</t>
+          <t>https://clck.ru/36m5M9</t>
         </is>
       </c>
     </row>
@@ -2031,22 +2031,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>PUMA</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>11 990</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>7 799 ₽</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtladc653601/shoes-puma-krossovki/</t>
-        </is>
-      </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>PUMA</t>
+          <t>https://clck.ru/36m5ME</t>
         </is>
       </c>
     </row>
@@ -2061,22 +2061,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>Abricot</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>8 690</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>4 060 ₽</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/mp002xm0n068/shoes-abricot-botinki/</t>
-        </is>
-      </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Abricot</t>
+          <t>https://clck.ru/36m5MG</t>
         </is>
       </c>
     </row>
@@ -2091,22 +2091,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>Reebok</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>7 999</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>3 999 ₽</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlacx395601/shoes-reebok-krossovki/</t>
-        </is>
-      </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Reebok</t>
+          <t>https://clck.ru/36m5MM</t>
         </is>
       </c>
     </row>
@@ -2121,22 +2121,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>Abricot</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>8 990</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>4 200 ₽</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/mp002xm0n06s/shoes-abricot-krossovki/</t>
-        </is>
-      </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Abricot</t>
+          <t>https://clck.ru/36m5MP</t>
         </is>
       </c>
     </row>
@@ -2151,22 +2151,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>Tom Tailor</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>7 999</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>3 199 ₽</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/mp002xm089ia/clothes-tomtailor-dzhinsy/</t>
-        </is>
-      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Tom Tailor</t>
+          <t>https://clck.ru/36m5MR</t>
         </is>
       </c>
     </row>
@@ -2181,22 +2181,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>Superga</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>17 499</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>3 500 ₽</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlacf164601/shoes-superga-kedy/</t>
-        </is>
-      </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Superga</t>
+          <t>https://clck.ru/36m5MT</t>
         </is>
       </c>
     </row>
@@ -2211,22 +2211,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>Abricot</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>12 490</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>5 600 ₽</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/mp002xm0b4jq/shoes-abricot-botinki/</t>
-        </is>
-      </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Abricot</t>
+          <t>https://clck.ru/36m5MU</t>
         </is>
       </c>
     </row>
@@ -2241,22 +2241,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>24 699</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>9 880 ₽</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/rtlacu018501/clothes-diesel-khalat-domashniy/</t>
-        </is>
-      </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>https://clck.ru/36m5MZ</t>
         </is>
       </c>
     </row>

--- a/sneakers.xlsx
+++ b/sneakers.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -481,12 +481,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17990</t>
+          <t>13990</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9368</t>
+          <t>9490</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -521,17 +521,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9368</t>
+          <t>8990</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.lamoda.ru/p/mp002xm0b0fa/shoes-marcopolo-krossovki/</t>
+          <t>https://www.lamoda.ru/p/mp002xm046pc/shoes-marcopolo-krossovki/</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0B0FA_20628676_1_v2.jpg</t>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM046PC_20468745_1_v2.jpg</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Кеды </t>
+          <t xml:space="preserve"> Кроссовки </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>9368</t>
+          <t>8990</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.lamoda.ru/p/mp002xm0vn6w/shoes-marcopolo-kedy/</t>
+          <t>https://www.lamoda.ru/p/mp002xm046pf/shoes-marcopolo-krossovki/</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0VN6W_19835336_1_v2.jpg</t>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM046PF_20468750_1_v2.jpg</t>
         </is>
       </c>
     </row>
@@ -586,22 +586,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17990</t>
+          <t>14990</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>9368</t>
+          <t>10490</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.lamoda.ru/p/mp002xm2550b/shoes-marcopolo-krossovki/</t>
+          <t>https://www.lamoda.ru/p/mp002xm0sc58/shoes-marcopolo-krossovki/</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM2550B_19517999_1_v2.jpg</t>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0SC58_19394170_1_v2.jpg</t>
         </is>
       </c>
     </row>
@@ -621,22 +621,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17990</t>
+          <t>18990</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9368</t>
+          <t>12990</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.lamoda.ru/p/mp002xm0v6qo/shoes-marcopolo-krossovki/</t>
+          <t>https://www.lamoda.ru/p/mp002xm0v6ql/shoes-marcopolo-krossovki/</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0V6QO_19760815_1_v2.jpg</t>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0V6QL_19760805_1_v2.jpg</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Кроссовки </t>
+          <t xml:space="preserve"> Кеды </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -656,22 +656,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>15990</t>
+          <t>19990</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8243</t>
+          <t>13990</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.lamoda.ru/p/mp002xm0v6qn/shoes-marcopolo-krossovki/</t>
+          <t>https://www.lamoda.ru/p/mp002xm0vn6w/shoes-marcopolo-kedy/</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0V6QN_19760810_1_v2.jpg</t>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0VN6W_19835336_1_v2.jpg</t>
         </is>
       </c>
     </row>
@@ -691,22 +691,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>21990</t>
+          <t>18990</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11243</t>
+          <t>12990</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.lamoda.ru/p/mp002xm099mu/shoes-marcopolo-krossovki/</t>
+          <t>https://www.lamoda.ru/p/mp002xm0v6qo/shoes-marcopolo-krossovki/</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM099MU_20136380_1_v2.jpg</t>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0V6QO_19760815_1_v2.jpg</t>
         </is>
       </c>
     </row>
@@ -726,22 +726,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>17990</t>
+          <t>18990</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>9368</t>
+          <t>12990</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.lamoda.ru/p/mp002xm046pc/shoes-marcopolo-krossovki/</t>
+          <t>https://www.lamoda.ru/p/mp002xm0v6qn/shoes-marcopolo-krossovki/</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM046PC_20468745_1_v2.jpg</t>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0V6QN_19760810_1_v2.jpg</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>17990</t>
+          <t>16990</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8990</t>
+          <t>11490</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.lamoda.ru/p/mp002xm0sc58/shoes-marcopolo-krossovki/</t>
+          <t>https://www.lamoda.ru/p/mp002xm2550b/shoes-marcopolo-krossovki/</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0SC58_19394170_1_v2.jpg</t>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM2550B_19517999_1_v2.jpg</t>
         </is>
       </c>
     </row>
@@ -801,17 +801,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>9368</t>
+          <t>12490</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.lamoda.ru/p/mp002xm0v6q3/shoes-marcopolo-krossovki/</t>
+          <t>https://www.lamoda.ru/p/mp002xm0v6qr/shoes-marcopolo-krossovki/</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0V6Q3_19764788_1_v1.jpg</t>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0V6QR_19748907_1_v2.jpg</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Кроссовки </t>
+          <t xml:space="preserve"> Кеды </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -831,22 +831,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>15990</t>
+          <t>13990</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8243</t>
+          <t>9490</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.lamoda.ru/p/mp002xm0b0fd/shoes-marcopolo-krossovki/</t>
+          <t>https://www.lamoda.ru/p/mp002xm0vn8c/shoes-marcopolo-kedy/</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0B0FD_20628691_1_v2.jpg</t>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0VN8C_19835351_1_v2.jpg</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Кеды </t>
+          <t xml:space="preserve"> Кроссовки </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -866,22 +866,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>19990</t>
+          <t>17990</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10493</t>
+          <t>12490</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.lamoda.ru/p/mp002xm0vn8c/shoes-marcopolo-kedy/</t>
+          <t>https://www.lamoda.ru/p/mp002xm099mu/shoes-marcopolo-krossovki/</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0VN8C_19835351_1_v2.jpg</t>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM099MU_20136380_1_v2.jpg</t>
         </is>
       </c>
     </row>

--- a/sneakers.xlsx
+++ b/sneakers.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,32 +471,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Кеды </t>
+          <t xml:space="preserve"> Кроссовки Lamoda Exclusive CLASSIC LEATHER</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marc O`Polo</t>
+          <t>Reebok</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13990</t>
+          <t>13499</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9490</t>
+          <t>5399</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.lamoda.ru/p/mp002xm0sc57/shoes-marcopolo-kedy/</t>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Frtlacv046101%2Fshoes-reebok-krossovki%2F&amp;subid=AS32djkd31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0SC57_19392786_1_v1.jpg</t>
+          <t>https://a.lmcdn.ru/img236x341/R/T/RTLACV046101_20573199_1_v1.jpg</t>
         </is>
       </c>
     </row>
@@ -506,32 +506,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Кроссовки </t>
+          <t xml:space="preserve"> Кеды Полнота F (6)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marc O`Polo</t>
+          <t>Briggs</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17990</t>
+          <t>9999</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8990</t>
+          <t>6999</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.lamoda.ru/p/mp002xm046pc/shoes-marcopolo-krossovki/</t>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Fmp002xm1ua08%2Fshoes-briggs-kedy%2F&amp;subid=AS32djkd31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM046PC_20468745_1_v2.jpg</t>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM1UA08_21129245_1_v2.jpg</t>
         </is>
       </c>
     </row>
@@ -541,32 +541,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Кроссовки </t>
+          <t xml:space="preserve"> Кроссовки Полнота F (6)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marc O`Polo</t>
+          <t>Salamander</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17990</t>
+          <t>11990</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8990</t>
+          <t>10490</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.lamoda.ru/p/mp002xm046pf/shoes-marcopolo-krossovki/</t>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Fmp002xm091mc%2Fshoes-salamander-krossovki%2F&amp;subid=AS32djkd31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM046PF_20468750_1_v2.jpg</t>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM091MC_18488593_1_v1.jpg</t>
         </is>
       </c>
     </row>
@@ -576,32 +576,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Кроссовки </t>
+          <t xml:space="preserve"> Кеды HOOPS 3.0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marc O`Polo</t>
+          <t>adidas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14990</t>
+          <t>5999</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10490</t>
+          <t>4499</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.lamoda.ru/p/mp002xm0sc58/shoes-marcopolo-krossovki/</t>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Frtlacx099201%2Fshoes-adidas-kedy%2F&amp;subid=AS32djkd31</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0SC58_19394170_1_v2.jpg</t>
+          <t>https://a.lmcdn.ru/img236x341/R/T/RTLACX099201_21441368_1_v1.jpg</t>
         </is>
       </c>
     </row>
@@ -616,27 +616,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marc O`Polo</t>
+          <t>Keddo</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>18990</t>
+          <t>5899</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12990</t>
+          <t>1320</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.lamoda.ru/p/mp002xm0v6ql/shoes-marcopolo-krossovki/</t>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Fmp002xm0b0jj%2Fshoes-keddo-krossovki%2F&amp;subid=AS32djkd31</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0V6QL_19760805_1_v2.jpg</t>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0B0JJ_20731948_1_v1.jpg</t>
         </is>
       </c>
     </row>
@@ -646,32 +646,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Кеды </t>
+          <t xml:space="preserve"> Кроссовки Vancouver</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marc O`Polo</t>
+          <t>Outventure</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>19990</t>
+          <t>5999</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>13990</t>
+          <t>4099</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.lamoda.ru/p/mp002xm0vn6w/shoes-marcopolo-kedy/</t>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Fmp002xm1u947%2Fshoes-outventure-krossovki%2F&amp;subid=AS32djkd31</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0VN6W_19835336_1_v2.jpg</t>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM1U947_21047137_1_v1.jpg</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Кроссовки </t>
+          <t xml:space="preserve"> Кроссовки RS-X Efekt Perf PUMA Black-Pumpkin Pie</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marc O`Polo</t>
+          <t>PUMA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>18990</t>
+          <t>15990</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12990</t>
+          <t>10394</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.lamoda.ru/p/mp002xm0v6qo/shoes-marcopolo-krossovki/</t>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Frtladc653001%2Fshoes-puma-krossovki%2F&amp;subid=AS32djkd31</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0V6QO_19760815_1_v2.jpg</t>
+          <t>https://a.lmcdn.ru/img236x341/R/T/RTLADC653001_21620011_1_v1.jpg</t>
         </is>
       </c>
     </row>
@@ -716,32 +716,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Кроссовки </t>
+          <t xml:space="preserve"> Кроссовки All-Day Active PUMA Black-PUMA White-Yel</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marc O`Polo</t>
+          <t>PUMA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>18990</t>
+          <t>6490</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12990</t>
+          <t>4219</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.lamoda.ru/p/mp002xm0v6qn/shoes-marcopolo-krossovki/</t>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Frtladc746601%2Fshoes-puma-krossovki%2F&amp;subid=AS32djkd31</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0V6QN_19760810_1_v2.jpg</t>
+          <t>https://a.lmcdn.ru/img236x341/R/T/RTLADC746601_21644874_1_v1.jpg</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marc O`Polo</t>
+          <t>Demix</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>16990</t>
+          <t>4599</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11490</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.lamoda.ru/p/mp002xm2550b/shoes-marcopolo-krossovki/</t>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Fmp002xm0v7yq%2Fshoes-demix-krossovki%2F&amp;subid=AS32djkd31</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM2550B_19517999_1_v2.jpg</t>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0V7YQ_20524594_1_v1.jpg</t>
         </is>
       </c>
     </row>
@@ -791,27 +791,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marc O`Polo</t>
+          <t>Keddo</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>17990</t>
+          <t>5999</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12490</t>
+          <t>1620</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.lamoda.ru/p/mp002xm0v6qr/shoes-marcopolo-krossovki/</t>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Fmp002xm0azhk%2Fshoes-keddo-krossovki%2F&amp;subid=AS32djkd31</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0V6QR_19748907_1_v2.jpg</t>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0AZHK_20601334_1_v1.jpg</t>
         </is>
       </c>
     </row>
@@ -821,32 +821,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Кеды </t>
+          <t xml:space="preserve"> Кроссовки </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Marc O`Polo</t>
+          <t>Keddo</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>13990</t>
+          <t>6199</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>9490</t>
+          <t>1320</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.lamoda.ru/p/mp002xm0vn8c/shoes-marcopolo-kedy/</t>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Fmp002xm0b0jc%2Fshoes-keddo-krossovki%2F&amp;subid=AS32djkd31</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0VN8C_19835351_1_v2.jpg</t>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0B0JC_20731943_1_v1.jpg</t>
         </is>
       </c>
     </row>
@@ -856,32 +856,1292 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Кеды SAVAGE 4.0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Termit</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7299</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>4499</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Fmp002xm08w84%2Fshoes-termit-kedy%2F&amp;subid=AS32djkd31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM08W84_18101495_1_v1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Кроссовки Lamoda Exclusive CLASSIC LEATHER</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Reebok</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13499</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5399</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Frtlacv046101%2Fshoes-reebok-krossovki%2F&amp;subid=AS32djkd31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://a.lmcdn.ru/img236x341/R/T/RTLACV046101_20573199_1_v1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Кеды Полнота F (6)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Briggs</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>6999</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Fmp002xm1ua08%2Fshoes-briggs-kedy%2F&amp;subid=AS32djkd31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM1UA08_21129245_1_v2.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Кроссовки Полнота F (6)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Salamander</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11990</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>10490</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Fmp002xm091mc%2Fshoes-salamander-krossovki%2F&amp;subid=AS32djkd31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM091MC_18488593_1_v1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Кеды HOOPS 3.0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5999</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4499</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Frtlacx099201%2Fshoes-adidas-kedy%2F&amp;subid=AS32djkd31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://a.lmcdn.ru/img236x341/R/T/RTLACX099201_21441368_1_v1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Кроссовки </t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Marc O`Polo</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>17990</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>12490</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>https://www.lamoda.ru/p/mp002xm099mu/shoes-marcopolo-krossovki/</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM099MU_20136380_1_v2.jpg</t>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Keddo</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5899</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Fmp002xm0b0jj%2Fshoes-keddo-krossovki%2F&amp;subid=AS32djkd31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0B0JJ_20731948_1_v1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Кроссовки Vancouver</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Outventure</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5999</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>4099</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Fmp002xm1u947%2Fshoes-outventure-krossovki%2F&amp;subid=AS32djkd31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM1U947_21047137_1_v1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Кроссовки RS-X Efekt Perf PUMA Black-Pumpkin Pie</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>PUMA</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15990</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>10394</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Frtladc653001%2Fshoes-puma-krossovki%2F&amp;subid=AS32djkd31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://a.lmcdn.ru/img236x341/R/T/RTLADC653001_21620011_1_v1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Кроссовки All-Day Active PUMA Black-PUMA White-Yel</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>PUMA</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6490</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>4219</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Frtladc746601%2Fshoes-puma-krossovki%2F&amp;subid=AS32djkd31</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://a.lmcdn.ru/img236x341/R/T/RTLADC746601_21644874_1_v1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Кроссовки </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Demix</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4599</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>3999</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Fmp002xm0v7yq%2Fshoes-demix-krossovki%2F&amp;subid=AS32djkd31</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0V7YQ_20524594_1_v1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Кроссовки </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Keddo</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5999</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1620</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Fmp002xm0azhk%2Fshoes-keddo-krossovki%2F&amp;subid=AS32djkd31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0AZHK_20601334_1_v1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Кроссовки </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Keddo</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6199</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Fmp002xm0b0jc%2Fshoes-keddo-krossovki%2F&amp;subid=AS32djkd31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0B0JC_20731943_1_v1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Кеды SAVAGE 4.0</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Termit</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7299</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>4499</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Fmp002xm08w84%2Fshoes-termit-kedy%2F&amp;subid=AS32djkd31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM08W84_18101495_1_v1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Кроссовки Lamoda Exclusive CLASSIC LEATHER</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Reebok</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13499</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>5399</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Frtlacv046101%2Fshoes-reebok-krossovki%2F&amp;subid=AS32djkd31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://a.lmcdn.ru/img236x341/R/T/RTLACV046101_20573199_1_v1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Кеды Полнота F (6)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Briggs</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>6999</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Fmp002xm1ua08%2Fshoes-briggs-kedy%2F&amp;subid=AS32djkd31</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM1UA08_21129245_1_v2.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Кроссовки Полнота F (6)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Salamander</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11990</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>10490</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Fmp002xm091mc%2Fshoes-salamander-krossovki%2F&amp;subid=AS32djkd31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM091MC_18488593_1_v1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Кеды HOOPS 3.0</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5999</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>4499</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Frtlacx099201%2Fshoes-adidas-kedy%2F&amp;subid=AS32djkd31</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://a.lmcdn.ru/img236x341/R/T/RTLACX099201_21441368_1_v1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Кроссовки </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Keddo</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5899</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Fmp002xm0b0jj%2Fshoes-keddo-krossovki%2F&amp;subid=AS32djkd31</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0B0JJ_20731948_1_v1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Кроссовки Vancouver</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Outventure</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5999</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>4099</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Fmp002xm1u947%2Fshoes-outventure-krossovki%2F&amp;subid=AS32djkd31</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM1U947_21047137_1_v1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Кроссовки RS-X Efekt Perf PUMA Black-Pumpkin Pie</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>PUMA</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>15990</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>10394</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Frtladc653001%2Fshoes-puma-krossovki%2F&amp;subid=AS32djkd31</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://a.lmcdn.ru/img236x341/R/T/RTLADC653001_21620011_1_v1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Кроссовки All-Day Active PUMA Black-PUMA White-Yel</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>PUMA</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6490</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>4219</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Frtladc746601%2Fshoes-puma-krossovki%2F&amp;subid=AS32djkd31</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://a.lmcdn.ru/img236x341/R/T/RTLADC746601_21644874_1_v1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Кроссовки </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Demix</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4599</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3999</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Fmp002xm0v7yq%2Fshoes-demix-krossovki%2F&amp;subid=AS32djkd31</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0V7YQ_20524594_1_v1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Кроссовки </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Keddo</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5999</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1620</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Fmp002xm0azhk%2Fshoes-keddo-krossovki%2F&amp;subid=AS32djkd31</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0AZHK_20601334_1_v1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Кроссовки </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Keddo</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6199</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Fmp002xm0b0jc%2Fshoes-keddo-krossovki%2F&amp;subid=AS32djkd31</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0B0JC_20731943_1_v1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Кеды SAVAGE 4.0</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Termit</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7299</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>4499</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Fmp002xm08w84%2Fshoes-termit-kedy%2F&amp;subid=AS32djkd31</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM08W84_18101495_1_v1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Кроссовки Lamoda Exclusive CLASSIC LEATHER</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Reebok</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>13499</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>5399</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Frtlacv046101%2Fshoes-reebok-krossovki%2F&amp;subid=AS32djkd31</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://a.lmcdn.ru/img236x341/R/T/RTLACV046101_20573199_1_v1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Кеды Полнота F (6)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Briggs</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>6999</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Fmp002xm1ua08%2Fshoes-briggs-kedy%2F&amp;subid=AS32djkd31</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM1UA08_21129245_1_v2.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Кроссовки Полнота F (6)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Salamander</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11990</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>10490</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Fmp002xm091mc%2Fshoes-salamander-krossovki%2F&amp;subid=AS32djkd31</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM091MC_18488593_1_v1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Кеды HOOPS 3.0</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>adidas</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5999</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>4499</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Frtlacx099201%2Fshoes-adidas-kedy%2F&amp;subid=AS32djkd31</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://a.lmcdn.ru/img236x341/R/T/RTLACX099201_21441368_1_v1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Кроссовки </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Keddo</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5899</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Fmp002xm0b0jj%2Fshoes-keddo-krossovki%2F&amp;subid=AS32djkd31</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0B0JJ_20731948_1_v1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Кроссовки Vancouver</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Outventure</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5999</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>4099</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Fmp002xm1u947%2Fshoes-outventure-krossovki%2F&amp;subid=AS32djkd31</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM1U947_21047137_1_v1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Кроссовки RS-X Efekt Perf PUMA Black-Pumpkin Pie</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>PUMA</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>15990</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>10394</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Frtladc653001%2Fshoes-puma-krossovki%2F&amp;subid=AS32djkd31</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://a.lmcdn.ru/img236x341/R/T/RTLADC653001_21620011_1_v1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Кроссовки All-Day Active PUMA Black-PUMA White-Yel</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>PUMA</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6490</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>4219</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Frtladc746601%2Fshoes-puma-krossovki%2F&amp;subid=AS32djkd31</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://a.lmcdn.ru/img236x341/R/T/RTLADC746601_21644874_1_v1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Кроссовки </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Demix</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4599</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>3999</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Fmp002xm0v7yq%2Fshoes-demix-krossovki%2F&amp;subid=AS32djkd31</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0V7YQ_20524594_1_v1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Кроссовки </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Keddo</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5999</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1620</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Fmp002xm0azhk%2Fshoes-keddo-krossovki%2F&amp;subid=AS32djkd31</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0AZHK_20601334_1_v1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Кроссовки </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Keddo</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6199</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Fmp002xm0b0jc%2Fshoes-keddo-krossovki%2F&amp;subid=AS32djkd31</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM0B0JC_20731943_1_v1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Кеды SAVAGE 4.0</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Termit</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7299</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>4499</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>https://giiuz.com/g/3f2779c2d4015c80bd834e8640d77b/?erid=F7NfYUJRWmqqH7eNuaVh&amp;ulp=https%3A%2F%2Fwww.lamoda.ru%2Fp%2Fmp002xm08w84%2Fshoes-termit-kedy%2F&amp;subid=AS32djkd31</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>https://a.lmcdn.ru/img236x341/M/P/MP002XM08W84_18101495_1_v1.jpg</t>
         </is>
       </c>
     </row>
